--- a/Data/COVID_Parcel_Project_Expectations.xlsx
+++ b/Data/COVID_Parcel_Project_Expectations.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Personal_Projects\Covid_Parcel_Business_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Personal_Projects\Covid_Parcel_Business_Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E11BC40-42C3-48E5-BFD0-366A31DCA8BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDA6CB4-EE1D-4543-AACB-23773C6039E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expectation" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="Questions and Expectation" sheetId="3" r:id="rId3"/>
-    <sheet name="Customer group" sheetId="4" r:id="rId4"/>
-    <sheet name="Period fix" sheetId="5" r:id="rId5"/>
+    <sheet name="Period fix" sheetId="5" r:id="rId4"/>
+    <sheet name="Customer group" sheetId="4" r:id="rId5"/>
+    <sheet name="Cust_group" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="164">
   <si>
     <t>Business Question</t>
   </si>
@@ -792,7 +793,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -813,20 +814,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -867,6 +859,18 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1697,18 +1701,18 @@
       <c r="C1" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="16" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="26" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="15" t="s">
         <v>89</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -1716,112 +1720,112 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="39.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="26" t="s">
         <v>90</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="12"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="12" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="14"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="12" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="78.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="26" t="s">
         <v>91</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="17" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="91.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="12"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="12" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="12"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="12" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="12"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="12" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="26" x14ac:dyDescent="0.35">
-      <c r="A10" s="14"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="12" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C12" s="7"/>
@@ -1873,7 +1877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C70D2B3-0727-4C88-BF60-9910C9D6D2E8}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1886,142 +1890,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="23" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="39.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="15">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="12" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="39.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="15">
+      <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="39.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="15">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="12" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="15">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="12" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="15">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="12" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="15">
+      <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="12" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="39.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="15">
+      <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="12" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="15">
+      <c r="A9" s="12">
         <v>8</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="12" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="15">
+      <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="12" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2037,6 +2041,69 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8881167-3ACF-4A9D-A118-CD5BEB8CE725}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.90625" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" customWidth="1"/>
+    <col min="4" max="4" width="39.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45BB5EE4-1920-4B46-A147-F2CF160E39D0}">
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -2055,207 +2122,230 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="18" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="21">
+      <c r="A2" s="18">
         <v>0</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="19">
         <v>12</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="19">
         <v>14</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="19">
         <v>16.670000000000002</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="19">
         <v>1.1299999999999999</v>
       </c>
-      <c r="G2" s="22">
+      <c r="G2" s="19">
         <v>1.34</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="21">
+      <c r="A3" s="18">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="19">
         <v>15</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="19">
         <v>22</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="19">
         <v>46.67</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="19">
         <v>1.41</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="19">
         <v>2.1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="21">
+      <c r="A4" s="18">
         <v>2</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="19">
         <v>174</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="19">
         <v>234</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="19">
         <v>34.479999999999997</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="19">
         <v>16.399999999999999</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="19">
         <v>22.37</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="21">
+      <c r="A5" s="18">
         <v>3</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="19">
         <v>0</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="19">
         <v>95</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="19">
         <v>0</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="19">
         <v>9.08</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="21">
+      <c r="A6" s="18">
         <v>4</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="19">
         <v>860</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="19">
         <v>681</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="19">
         <v>-20.81</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="19">
         <v>81.06</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="19">
         <v>65.11</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="23"/>
+      <c r="A7" s="20"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="24"/>
+      <c r="A8" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8881167-3ACF-4A9D-A118-CD5BEB8CE725}">
-  <dimension ref="A1:D3"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63E8C15A-DE99-49D6-92C1-89C5ACE328BA}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.90625" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" customWidth="1"/>
-    <col min="4" max="4" width="39.453125" customWidth="1"/>
+    <col min="1" max="1" width="30.54296875" customWidth="1"/>
+    <col min="2" max="2" width="21.08984375" customWidth="1"/>
+    <col min="3" max="3" width="23.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>162</v>
+    <row r="1" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="20">
+        <v>12</v>
+      </c>
+      <c r="C2" s="20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="20">
+        <v>15</v>
+      </c>
+      <c r="C3" s="20">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="20">
+        <v>174</v>
+      </c>
+      <c r="C4" s="20">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="20">
+        <v>860</v>
+      </c>
+      <c r="C5" s="20">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="20">
+        <v>0</v>
+      </c>
+      <c r="C6" s="20">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Data/COVID_Parcel_Project_Expectations.xlsx
+++ b/Data/COVID_Parcel_Project_Expectations.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Personal_Projects\Covid_Parcel_Business_Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDA6CB4-EE1D-4543-AACB-23773C6039E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB84462-E867-4D84-BC22-65644F713488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="16070" windowHeight="9810" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Expectation" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet name="Questions and Expectation" sheetId="3" r:id="rId3"/>
-    <sheet name="Period fix" sheetId="5" r:id="rId4"/>
-    <sheet name="Customer group" sheetId="4" r:id="rId5"/>
-    <sheet name="Cust_group" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId1"/>
+    <sheet name="Questions and Expectation" sheetId="3" r:id="rId2"/>
+    <sheet name="Period fix" sheetId="5" r:id="rId3"/>
+    <sheet name="Customer group" sheetId="4" r:id="rId4"/>
+    <sheet name="Cust_group" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,203 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="86">
   <si>
     <t>Business Question</t>
   </si>
   <si>
-    <t>Expectation Type</t>
-  </si>
-  <si>
-    <t>Requirement</t>
-  </si>
-  <si>
-    <t>How to Fulfill It</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Main: Impact of COVID on parcel business</t>
-  </si>
-  <si>
-    <t>When were customer volumes first impacted?</t>
-  </si>
-  <si>
-    <t>What events may have contributed?</t>
-  </si>
-  <si>
-    <t>How did COVID impact peak season?</t>
-  </si>
-  <si>
-    <t>How did COVID affect customer groups?</t>
-  </si>
-  <si>
-    <t>% in each group: High Growth / Stable / Declining</t>
-  </si>
-  <si>
-    <t>% New customers during COVID</t>
-  </si>
-  <si>
-    <t>% Lost 2019 customers</t>
-  </si>
-  <si>
-    <t>Overall impact by group</t>
-  </si>
-  <si>
-    <t>Presentation Requirements</t>
-  </si>
-  <si>
-    <t>Submission</t>
-  </si>
-  <si>
-    <t>Explicit</t>
-  </si>
-  <si>
-    <t>Implicit</t>
-  </si>
-  <si>
-    <t>Measure total volume and revenue change</t>
-  </si>
-  <si>
-    <t>Use visual storytelling</t>
-  </si>
-  <si>
-    <t>Include revenue (not just volume)</t>
-  </si>
-  <si>
-    <t>Identify inflection point</t>
-  </si>
-  <si>
-    <t>Reference real-world events</t>
-  </si>
-  <si>
-    <t>Explain context of volume spike</t>
-  </si>
-  <si>
-    <t>Use timeline visuals</t>
-  </si>
-  <si>
-    <t>Compare peak season volume 2019 vs 2020</t>
-  </si>
-  <si>
-    <t>Use defined peak dates</t>
-  </si>
-  <si>
-    <t>Group by Customer_Group, show volume trends</t>
-  </si>
-  <si>
-    <t>Compare year-over-year</t>
-  </si>
-  <si>
-    <t>Use ISGR to classify</t>
-  </si>
-  <si>
-    <t>Display by Customer_Group</t>
-  </si>
-  <si>
-    <t>Identify customers with 0 in 2019, &gt;0 in 2020</t>
-  </si>
-  <si>
-    <t>Report % per Customer_Group</t>
-  </si>
-  <si>
-    <t>Identify customers with &gt;0 in 2019, 0 in 2020</t>
-  </si>
-  <si>
-    <t>Show revenue/volume change by group</t>
-  </si>
-  <si>
-    <t>Include both volume and revenue</t>
-  </si>
-  <si>
-    <t>Use bar, line, and pie charts</t>
-  </si>
-  <si>
-    <t>Limit text, use executive language</t>
-  </si>
-  <si>
-    <t>Upload to GitHub and Brightspace</t>
-  </si>
-  <si>
-    <t>Use README and organize repo</t>
-  </si>
-  <si>
-    <t>Compare 2020 vs 2019 totals; show % increase</t>
-  </si>
-  <si>
-    <t>Use annotated line/bar chart</t>
-  </si>
-  <si>
-    <t>Apply base cost minus discount per parcel</t>
-  </si>
-  <si>
-    <t>Mark week with surge in volume (Week 11)</t>
-  </si>
-  <si>
-    <t>Mention March 11, 2020 (WHO declaration)</t>
-  </si>
-  <si>
-    <t>Timeline annotation: WHO pandemic announcement</t>
-  </si>
-  <si>
-    <t>Add vertical line/marker in volume trend chart</t>
-  </si>
-  <si>
-    <t>Filter peak weeks, plot bar charts per group</t>
-  </si>
-  <si>
-    <t>Nov–Jan range used for both years</t>
-  </si>
-  <si>
-    <t>Aggregate volume/revenue by group</t>
-  </si>
-  <si>
-    <t>2019 vs 2020 comparisons</t>
-  </si>
-  <si>
-    <t>Compare individual customer growth to ISGR (11.4%)</t>
-  </si>
-  <si>
-    <t>Groupby + stacked bar chart</t>
-  </si>
-  <si>
-    <t>Filter and groupby Customer_Group</t>
-  </si>
-  <si>
-    <t>New / Total 2020 Customers * 100</t>
-  </si>
-  <si>
-    <t>Lost / Total 2019 Customers * 100</t>
-  </si>
-  <si>
-    <t>Groupby Customer_Group, compare 2019 vs 2020</t>
-  </si>
-  <si>
-    <t>Compute both metrics per group</t>
-  </si>
-  <si>
-    <t>At least one of each in notebook/slides</t>
-  </si>
-  <si>
-    <t>Bullet points, clear headings, minimal jargon</t>
-  </si>
-  <si>
-    <t>Create repo, invite team + prof</t>
-  </si>
-  <si>
-    <t>Add summary, folder structure</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>To Do</t>
-  </si>
-  <si>
-    <t>In Progress</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -258,48 +65,6 @@
   </si>
   <si>
     <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
   </si>
   <si>
     <t>Main Business Question</t>
@@ -694,7 +459,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -704,12 +469,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,14 +552,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -860,6 +613,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -867,9 +623,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1175,510 +928,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="4.453125" customWidth="1"/>
-    <col min="2" max="2" width="43.36328125" customWidth="1"/>
-    <col min="3" max="3" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A2:A24" numberStoredAsText="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351AF24A-D7C5-4C6D-BE6C-389E0D5864A8}">
   <dimension ref="A1:E22"/>
   <sheetViews>
@@ -1688,177 +937,177 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.6328125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="5.81640625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="44.36328125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="18.6328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="44.36328125" style="2" customWidth="1"/>
     <col min="4" max="4" width="57.1796875" customWidth="1"/>
     <col min="5" max="5" width="38.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>101</v>
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="26" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>106</v>
+      <c r="A2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="39.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>107</v>
+      <c r="A3" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="27"/>
-      <c r="B4" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>108</v>
+      <c r="A4" s="24"/>
+      <c r="B4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="28"/>
-      <c r="B5" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>103</v>
+      <c r="A5" s="25"/>
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="78.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>105</v>
+      <c r="A6" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="91.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="27"/>
-      <c r="B7" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>104</v>
+      <c r="A7" s="24"/>
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="27"/>
-      <c r="B8" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>109</v>
+      <c r="A8" s="24"/>
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="27"/>
-      <c r="B9" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>110</v>
+      <c r="A9" s="24"/>
+      <c r="B9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="26" x14ac:dyDescent="0.35">
-      <c r="A10" s="28"/>
-      <c r="B10" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>111</v>
+      <c r="A10" s="25"/>
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C12" s="7"/>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C13" s="7"/>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C14" s="7"/>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C15" s="7"/>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C16" s="7"/>
+      <c r="C16" s="3"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C17" s="7"/>
+      <c r="C17" s="3"/>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C18" s="7"/>
+      <c r="C18" s="3"/>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C19" s="7"/>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C20" s="7"/>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C21" s="7"/>
+      <c r="C21" s="3"/>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C22" s="7"/>
+      <c r="C22" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1873,11 +1122,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C70D2B3-0727-4C88-BF60-9910C9D6D2E8}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1890,157 +1139,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="B1" s="23" t="s">
+      <c r="A1" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>114</v>
+      <c r="C1" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="39.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="12">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>116</v>
+      <c r="B2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="39.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="12">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>119</v>
+      <c r="B3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="39.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="12">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>122</v>
+      <c r="B4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="12">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>125</v>
+      <c r="B5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="12">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>150</v>
+      <c r="B6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="12">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>163</v>
+      <c r="B7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="39.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="12">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>132</v>
+      <c r="B8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="12">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>135</v>
+      <c r="B9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="12">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>137</v>
+      <c r="B10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8881167-3ACF-4A9D-A118-CD5BEB8CE725}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -2057,45 +1306,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>154</v>
+      <c r="A1" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>158</v>
+      <c r="A2" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>162</v>
+      <c r="A3" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2103,7 +1352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45BB5EE4-1920-4B46-A147-F2CF160E39D0}">
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -2122,156 +1371,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>143</v>
+      <c r="B1" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="18">
+      <c r="A2" s="14">
         <v>0</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="19">
+      <c r="B2" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="15">
         <v>12</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="15">
         <v>14</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="15">
         <v>16.670000000000002</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="15">
         <v>1.1299999999999999</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="15">
         <v>1.34</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="18">
+      <c r="A3" s="14">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="C3" s="19">
+      <c r="B3" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="15">
         <v>15</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="15">
         <v>22</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="15">
         <v>46.67</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="15">
         <v>1.41</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="15">
         <v>2.1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="18">
+      <c r="A4" s="14">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="C4" s="19">
+      <c r="B4" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="15">
         <v>174</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="15">
         <v>234</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="15">
         <v>34.479999999999997</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="15">
         <v>16.399999999999999</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="15">
         <v>22.37</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="18">
+      <c r="A5" s="14">
         <v>3</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="C5" s="19">
+      <c r="B5" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="15">
         <v>0</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="15">
         <v>95</v>
       </c>
-      <c r="E5" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="F5" s="19">
+      <c r="E5" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="15">
         <v>0</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="15">
         <v>9.08</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="18">
+      <c r="A6" s="14">
         <v>4</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="C6" s="19">
+      <c r="B6" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="15">
         <v>860</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="15">
         <v>681</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="15">
         <v>-20.81</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="15">
         <v>81.06</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="15">
         <v>65.11</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="20"/>
+      <c r="A7" s="16"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="21"/>
+      <c r="A8" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63E8C15A-DE99-49D6-92C1-89C5ACE328BA}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -2283,68 +1532,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>140</v>
+      <c r="A1" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="B2" s="20">
+      <c r="A2" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="16">
         <v>12</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="16">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3" s="20">
+      <c r="A3" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="16">
         <v>15</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="16">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="B4" s="20">
+      <c r="A4" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="16">
         <v>174</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="16">
         <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="B5" s="20">
+      <c r="A5" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="16">
         <v>860</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="16">
         <v>681</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="B6" s="20">
+      <c r="A6" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="16">
         <v>0</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="16">
         <v>95</v>
       </c>
     </row>
